--- a/rfuse/Archive/로컬_개별실험_v3/rfuse_summary.xlsx
+++ b/rfuse/Archive/로컬_개별실험_v3/rfuse_summary.xlsx
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>961</v>
+        <v>4491</v>
       </c>
       <c r="C3" s="3">
-        <v>2568</v>
+        <v>10600</v>
       </c>
       <c r="D3" s="3">
-        <v>3673</v>
+        <v>19300</v>
       </c>
       <c r="E3" s="3">
-        <v>13200</v>
+        <v>28500</v>
       </c>
       <c r="F3" s="3">
-        <v>11000</v>
+        <v>31800</v>
       </c>
       <c r="G3" s="3">
-        <v>15000</v>
+        <v>25500</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -504,22 +504,22 @@
         <v>1</v>
       </c>
       <c r="B8" s="3">
-        <v>12600</v>
+        <v>3993</v>
       </c>
       <c r="C8" s="3">
-        <v>19300</v>
+        <v>7947</v>
       </c>
       <c r="D8" s="3">
-        <v>41200</v>
+        <v>16100</v>
       </c>
       <c r="E8" s="3">
-        <v>81700</v>
+        <v>31900</v>
       </c>
       <c r="F8" s="3">
-        <v>151000</v>
+        <v>217000</v>
       </c>
       <c r="G8" s="3">
-        <v>194000</v>
+        <v>271000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -558,22 +558,22 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>2836</v>
+        <v>7314</v>
       </c>
       <c r="C13" s="3">
-        <v>3207</v>
+        <v>10200</v>
       </c>
       <c r="D13" s="3">
-        <v>3366</v>
+        <v>12300</v>
       </c>
       <c r="E13" s="3">
-        <v>3604</v>
+        <v>12100</v>
       </c>
       <c r="F13" s="3">
-        <v>3804</v>
+        <v>12400</v>
       </c>
       <c r="G13" s="3">
-        <v>4835</v>
+        <v>12100</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -612,22 +612,22 @@
         <v>1</v>
       </c>
       <c r="B18" s="3">
-        <v>138000</v>
+        <v>128000</v>
       </c>
       <c r="C18" s="3">
-        <v>162000</v>
+        <v>156000</v>
       </c>
       <c r="D18" s="3">
-        <v>184000</v>
+        <v>194000</v>
       </c>
       <c r="E18" s="3">
-        <v>193000</v>
+        <v>201000</v>
       </c>
       <c r="F18" s="3">
-        <v>185000</v>
+        <v>175000</v>
       </c>
       <c r="G18" s="3">
-        <v>117000</v>
+        <v>157000</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -666,22 +666,22 @@
         <v>1</v>
       </c>
       <c r="B23" s="3">
-        <v>3700</v>
+        <v>1777</v>
       </c>
       <c r="C23" s="3">
-        <v>3527</v>
+        <v>2592</v>
       </c>
       <c r="D23" s="3">
-        <v>7613</v>
+        <v>5375</v>
       </c>
       <c r="E23" s="3">
-        <v>9448</v>
+        <v>7742</v>
       </c>
       <c r="F23" s="3">
-        <v>9542</v>
+        <v>8414</v>
       </c>
       <c r="G23" s="3">
-        <v>10400</v>
+        <v>11400</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -720,22 +720,22 @@
         <v>1</v>
       </c>
       <c r="B28" s="3">
-        <v>91300</v>
+        <v>82500</v>
       </c>
       <c r="C28" s="3">
-        <v>105000</v>
+        <v>112000</v>
       </c>
       <c r="D28" s="3">
-        <v>334000</v>
+        <v>244000</v>
       </c>
       <c r="E28" s="3">
-        <v>304000</v>
+        <v>282000</v>
       </c>
       <c r="F28" s="3">
-        <v>309000</v>
+        <v>282000</v>
       </c>
       <c r="G28" s="3">
-        <v>367000</v>
+        <v>342000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -774,22 +774,22 @@
         <v>1</v>
       </c>
       <c r="B33" s="3">
-        <v>7275</v>
+        <v>5953</v>
       </c>
       <c r="C33" s="3">
-        <v>9051</v>
+        <v>7340</v>
       </c>
       <c r="D33" s="3">
-        <v>9929</v>
+        <v>9287</v>
       </c>
       <c r="E33" s="3">
-        <v>10600</v>
+        <v>9340</v>
       </c>
       <c r="F33" s="3">
-        <v>12100</v>
+        <v>9443</v>
       </c>
       <c r="G33" s="3">
-        <v>12700</v>
+        <v>8863</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -828,22 +828,22 @@
         <v>1</v>
       </c>
       <c r="B38" s="3">
-        <v>131000</v>
+        <v>138000</v>
       </c>
       <c r="C38" s="3">
-        <v>163000</v>
+        <v>155000</v>
       </c>
       <c r="D38" s="3">
-        <v>183000</v>
+        <v>204000</v>
       </c>
       <c r="E38" s="3">
-        <v>221000</v>
+        <v>215000</v>
       </c>
       <c r="F38" s="3">
-        <v>216000</v>
+        <v>201000</v>
       </c>
       <c r="G38" s="3">
-        <v>182000</v>
+        <v>170000</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/Archive/로컬_개별실험_v3/rfuse_summary.xlsx
+++ b/rfuse/Archive/로컬_개별실험_v3/rfuse_summary.xlsx
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>4491</v>
+        <v>5389</v>
       </c>
       <c r="C3" s="3">
-        <v>10600</v>
+        <v>11200</v>
       </c>
       <c r="D3" s="3">
-        <v>19300</v>
+        <v>21000</v>
       </c>
       <c r="E3" s="3">
-        <v>28500</v>
+        <v>26900</v>
       </c>
       <c r="F3" s="3">
-        <v>31800</v>
+        <v>30100</v>
       </c>
       <c r="G3" s="3">
-        <v>25500</v>
+        <v>23700</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -504,22 +504,22 @@
         <v>1</v>
       </c>
       <c r="B8" s="3">
-        <v>3993</v>
+        <v>4127</v>
       </c>
       <c r="C8" s="3">
-        <v>7947</v>
+        <v>7751</v>
       </c>
       <c r="D8" s="3">
         <v>16100</v>
       </c>
       <c r="E8" s="3">
-        <v>31900</v>
+        <v>138000</v>
       </c>
       <c r="F8" s="3">
-        <v>217000</v>
+        <v>215000</v>
       </c>
       <c r="G8" s="3">
-        <v>271000</v>
+        <v>269000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -558,22 +558,22 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>7314</v>
+        <v>7876</v>
       </c>
       <c r="C13" s="3">
-        <v>10200</v>
+        <v>9941</v>
       </c>
       <c r="D13" s="3">
-        <v>12300</v>
+        <v>12200</v>
       </c>
       <c r="E13" s="3">
-        <v>12100</v>
+        <v>13300</v>
       </c>
       <c r="F13" s="3">
-        <v>12400</v>
+        <v>13600</v>
       </c>
       <c r="G13" s="3">
-        <v>12100</v>
+        <v>12200</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -612,22 +612,22 @@
         <v>1</v>
       </c>
       <c r="B18" s="3">
-        <v>128000</v>
+        <v>114000</v>
       </c>
       <c r="C18" s="3">
-        <v>156000</v>
+        <v>172000</v>
       </c>
       <c r="D18" s="3">
-        <v>194000</v>
+        <v>200000</v>
       </c>
       <c r="E18" s="3">
-        <v>201000</v>
+        <v>215000</v>
       </c>
       <c r="F18" s="3">
-        <v>175000</v>
+        <v>183000</v>
       </c>
       <c r="G18" s="3">
-        <v>157000</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -666,22 +666,22 @@
         <v>1</v>
       </c>
       <c r="B23" s="3">
-        <v>1777</v>
+        <v>2265</v>
       </c>
       <c r="C23" s="3">
-        <v>2592</v>
+        <v>3703</v>
       </c>
       <c r="D23" s="3">
-        <v>5375</v>
+        <v>8094</v>
       </c>
       <c r="E23" s="3">
-        <v>7742</v>
+        <v>8799</v>
       </c>
       <c r="F23" s="3">
-        <v>8414</v>
+        <v>7827</v>
       </c>
       <c r="G23" s="3">
-        <v>11400</v>
+        <v>8212</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -720,22 +720,22 @@
         <v>1</v>
       </c>
       <c r="B28" s="3">
-        <v>82500</v>
+        <v>85600</v>
       </c>
       <c r="C28" s="3">
-        <v>112000</v>
+        <v>106000</v>
       </c>
       <c r="D28" s="3">
-        <v>244000</v>
+        <v>272000</v>
       </c>
       <c r="E28" s="3">
-        <v>282000</v>
+        <v>293000</v>
       </c>
       <c r="F28" s="3">
-        <v>282000</v>
+        <v>270000</v>
       </c>
       <c r="G28" s="3">
-        <v>342000</v>
+        <v>406000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -774,22 +774,22 @@
         <v>1</v>
       </c>
       <c r="B33" s="3">
-        <v>5953</v>
+        <v>5505</v>
       </c>
       <c r="C33" s="3">
-        <v>7340</v>
+        <v>7968</v>
       </c>
       <c r="D33" s="3">
-        <v>9287</v>
+        <v>8175</v>
       </c>
       <c r="E33" s="3">
-        <v>9340</v>
+        <v>9626</v>
       </c>
       <c r="F33" s="3">
-        <v>9443</v>
+        <v>9147</v>
       </c>
       <c r="G33" s="3">
-        <v>8863</v>
+        <v>8818</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -828,22 +828,22 @@
         <v>1</v>
       </c>
       <c r="B38" s="3">
-        <v>138000</v>
+        <v>122000</v>
       </c>
       <c r="C38" s="3">
-        <v>155000</v>
+        <v>171000</v>
       </c>
       <c r="D38" s="3">
-        <v>204000</v>
+        <v>199000</v>
       </c>
       <c r="E38" s="3">
-        <v>215000</v>
+        <v>224000</v>
       </c>
       <c r="F38" s="3">
-        <v>201000</v>
+        <v>198000</v>
       </c>
       <c r="G38" s="3">
-        <v>170000</v>
+        <v>162000</v>
       </c>
     </row>
   </sheetData>
